--- a/SuppXLS/Scen_SYS_Demands_LED_10.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED_10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9516AC-118D-45E3-AE03-2DEAD6D85C8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B689EB-AC82-4647-8E06-5BBEDA7BF59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1450" yWindow="830" windowWidth="14400" windowHeight="7360" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>

--- a/SuppXLS/Scen_SYS_Demands_LED_10.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B689EB-AC82-4647-8E06-5BBEDA7BF59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5089F7-D7EE-4B13-B4EE-2D6B668E8DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>

--- a/SuppXLS/Scen_SYS_Demands_LED_10.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5089F7-D7EE-4B13-B4EE-2D6B668E8DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263536A1-B741-49A5-A2B5-17328D85EEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23856" yWindow="4116" windowWidth="14400" windowHeight="7356" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
